--- a/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
@@ -429,42 +429,317 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>Honda HR-V</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Dacia Jogger</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>DS 4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Volvo C40 Recharge</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Kia EV6</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>VW Multivan</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Peugeot 308</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ORA FUNKY CAT</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>WEY Coffee 01</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kia Niro</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Genesis GV60</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Tesla Model Y</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery Sport</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>CHERY OMODA5</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Volkswagen ID. Buzz</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Volkswagen Touran</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Lexus RX</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>MG 4 Electric</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Ford Ranger</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Lucid Air</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Jeep Grand Cherokee</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Volkswagen Amarok</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLC</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Maxus MIFA 9</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Ford Puma</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Coupé</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Renault Megane E-Tech</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Volkswagen Polo</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Lexus NX</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Volkswagen Taigo</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Nissan Ariya</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>smart #1</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 6</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover Sport</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Isuzu D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>NIO ET7</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Land Rover Range Rover</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Renault Austral</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>DS 9</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Tesla Model S</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Honda Civic</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>WEY Coffee 02</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Toyota bZ4X</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Seat Ibiza</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>BMW X1</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Mobilize Limo</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Mercedes-EQ EQE</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>BYD Atto 3</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>Citroën C5 X</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>SEAT Arona</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>Mazda MAZDA CX-60</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>BMW 2 Series Active Tourer</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Volkswagen Golf</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>BMW i4</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz T-Class</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>Toyota Aygo X</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>Alfa Romeo Tonale</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>Cupra Born</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sheet Name</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
@@ -420,6 +420,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2022_cars_combined.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
